--- a/model_outputs/analysis_water_failure/water_deficits.xlsx
+++ b/model_outputs/analysis_water_failure/water_deficits.xlsx
@@ -149,37 +149,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -499,20 +469,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Pipe ID</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -521,10 +530,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -537,14 +543,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -578,7 +581,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Total system deficit (GPM)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -586,10 +642,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -602,14 +655,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -658,7 +708,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1232,15 +1285,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>297656</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>169069</xdr:rowOff>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>21431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>335756</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>16669</xdr:rowOff>
+      <xdr:colOff>550068</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50006</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1568,7 +1621,7 @@
   <dimension ref="A1:W502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/model_outputs/analysis_water_failure/water_deficits.xlsx
+++ b/model_outputs/analysis_water_failure/water_deficits.xlsx
@@ -537,7 +537,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -558,6 +558,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -693,12 +694,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1284,16 +1280,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>511968</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>21431</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>611980</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>550068</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>50006</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>78580</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1621,7 +1617,7 @@
   <dimension ref="A1:W502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
